--- a/Gerber/CPL_IMX294.xlsx
+++ b/Gerber/CPL_IMX294.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will1\Dropbox\KiCad\IMX294_MIPI_Breakout_Small\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will1\Dropbox\KiCad\FourThirdsEye_Small\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D816DD69-393A-4E6B-AE1A-7691126E2B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69D17B0-A7FF-4A94-B2EE-0A3D16C69429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4748" yWindow="4748" windowWidth="28800" windowHeight="15472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="6548" windowWidth="24683" windowHeight="13117" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="110">
   <si>
     <t>Designator</t>
   </si>
@@ -220,9 +220,6 @@
     <t>J4</t>
   </si>
   <si>
-    <t>J5</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -341,6 +338,18 @@
   </si>
   <si>
     <t>U4</t>
+  </si>
+  <si>
+    <t>C73</t>
+  </si>
+  <si>
+    <t>C74</t>
+  </si>
+  <si>
+    <t>C75</t>
+  </si>
+  <si>
+    <t>U8</t>
   </si>
 </sst>
 </file>
@@ -691,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:C86"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
@@ -732,7 +741,7 @@
         <v>-106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2">
         <v>-90</v>
@@ -743,13 +752,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>156.05000000000001</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2">
         <v>-104.2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -766,7 +775,7 @@
         <v>-90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2">
         <v>-135</v>
@@ -783,7 +792,7 @@
         <v>-105.2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2">
         <v>135</v>
@@ -794,13 +803,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>133.69999999999999</v>
+        <v>133.6</v>
       </c>
       <c r="C6" s="2">
-        <v>-95.25</v>
+        <v>-95.3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2">
         <v>180</v>
@@ -817,7 +826,7 @@
         <v>-96.7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2">
         <v>180</v>
@@ -828,13 +837,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>133.75</v>
+        <v>133.6</v>
       </c>
       <c r="C8" s="2">
-        <v>-98.25</v>
+        <v>-98.2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2">
         <v>180</v>
@@ -851,7 +860,7 @@
         <v>-88.7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2">
         <v>90</v>
@@ -868,7 +877,7 @@
         <v>-103.4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2">
         <v>-90</v>
@@ -879,13 +888,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>157.65</v>
+        <v>157.69999999999999</v>
       </c>
       <c r="C11" s="2">
-        <v>-78.95</v>
+        <v>-79.3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2">
         <v>-90</v>
@@ -899,10 +908,10 @@
         <v>128.19999999999999</v>
       </c>
       <c r="C12" s="2">
-        <v>-87.95</v>
+        <v>-87.9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2">
         <v>-90</v>
@@ -913,13 +922,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>140.33750000000001</v>
+        <v>140.30000000000001</v>
       </c>
       <c r="C13" s="2">
-        <v>-79.349999999999994</v>
+        <v>-79.3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2">
         <v>-90</v>
@@ -933,10 +942,10 @@
         <v>151.9</v>
       </c>
       <c r="C14" s="2">
-        <v>-78.95</v>
+        <v>-79.349999999999994</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2">
         <v>90</v>
@@ -953,7 +962,7 @@
         <v>-90.2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2">
         <v>180</v>
@@ -967,10 +976,10 @@
         <v>146.19999999999999</v>
       </c>
       <c r="C16" s="2">
-        <v>-79.349999999999994</v>
+        <v>-79.3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2">
         <v>90</v>
@@ -984,10 +993,10 @@
         <v>159.5</v>
       </c>
       <c r="C17" s="2">
-        <v>-83.4</v>
+        <v>-83.5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2">
         <v>180</v>
@@ -1004,7 +1013,7 @@
         <v>-84</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2">
         <v>90</v>
@@ -1021,7 +1030,7 @@
         <v>-83.9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2">
         <v>90</v>
@@ -1038,7 +1047,7 @@
         <v>-87</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -1055,7 +1064,7 @@
         <v>-97.1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2">
         <v>180</v>
@@ -1072,7 +1081,7 @@
         <v>-83.9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2">
         <v>90</v>
@@ -1089,7 +1098,7 @@
         <v>-84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2">
         <v>-90</v>
@@ -1106,7 +1115,7 @@
         <v>-83.9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2">
         <v>-90</v>
@@ -1123,7 +1132,7 @@
         <v>-96.2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -1140,7 +1149,7 @@
         <v>-107.7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -1157,7 +1166,7 @@
         <v>-110.9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2">
         <v>-90</v>
@@ -1174,7 +1183,7 @@
         <v>-110.9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2">
         <v>-90</v>
@@ -1191,7 +1200,7 @@
         <v>-86.9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2">
         <v>-90</v>
@@ -1205,10 +1214,10 @@
         <v>156.1</v>
       </c>
       <c r="C30" s="2">
-        <v>-110.9</v>
+        <v>-111.2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2">
         <v>-90</v>
@@ -1225,7 +1234,7 @@
         <v>-98.9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2">
         <v>180</v>
@@ -1242,7 +1251,7 @@
         <v>-110.9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2">
         <v>90</v>
@@ -1259,7 +1268,7 @@
         <v>-87.7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2">
         <v>180</v>
@@ -1273,10 +1282,10 @@
         <v>155.1</v>
       </c>
       <c r="C34" s="2">
-        <v>-110.9</v>
+        <v>-111.2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2">
         <v>90</v>
@@ -1293,7 +1302,7 @@
         <v>-98</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -1307,10 +1316,10 @@
         <v>152.5</v>
       </c>
       <c r="C36" s="2">
-        <v>-84.35</v>
+        <v>-84.4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2">
         <v>90</v>
@@ -1327,7 +1336,7 @@
         <v>-107.9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2">
         <v>90</v>
@@ -1344,7 +1353,7 @@
         <v>-107.3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2">
         <v>180</v>
@@ -1358,10 +1367,10 @@
         <v>143</v>
       </c>
       <c r="C39" s="2">
-        <v>-84.02</v>
+        <v>-84</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2">
         <v>90</v>
@@ -1375,10 +1384,10 @@
         <v>152.5</v>
       </c>
       <c r="C40" s="2">
-        <v>-111.15</v>
+        <v>-111.2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2">
         <v>-90</v>
@@ -1395,7 +1404,7 @@
         <v>-100.7</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2">
         <v>180</v>
@@ -1409,10 +1418,10 @@
         <v>144</v>
       </c>
       <c r="C42" s="2">
-        <v>-84.02</v>
+        <v>-84</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2">
         <v>-90</v>
@@ -1429,7 +1438,7 @@
         <v>-91.2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2">
         <v>180</v>
@@ -1446,7 +1455,7 @@
         <v>-99.8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -1457,13 +1466,13 @@
         <v>49</v>
       </c>
       <c r="B45" s="2">
-        <v>133.69999999999999</v>
+        <v>133.6</v>
       </c>
       <c r="C45" s="2">
-        <v>-93.75</v>
+        <v>-93.7</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -1480,7 +1489,7 @@
         <v>-92.2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -1497,7 +1506,7 @@
         <v>-90.2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -1514,7 +1523,7 @@
         <v>-111</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2">
         <v>-90</v>
@@ -1531,7 +1540,7 @@
         <v>-105.7</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2">
         <v>180</v>
@@ -1548,7 +1557,7 @@
         <v>-111</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2">
         <v>90</v>
@@ -1565,7 +1574,7 @@
         <v>-83.9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2">
         <v>90</v>
@@ -1582,7 +1591,7 @@
         <v>-95.3</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2">
         <v>180</v>
@@ -1593,13 +1602,13 @@
         <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>159.19999999999999</v>
+        <v>158.80000000000001</v>
       </c>
       <c r="C53" s="2">
-        <v>-90.25</v>
+        <v>-90.2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -1616,7 +1625,7 @@
         <v>-110.9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2">
         <v>-90</v>
@@ -1633,7 +1642,7 @@
         <v>-107.2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -1650,7 +1659,7 @@
         <v>-94.4</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -1661,13 +1670,13 @@
         <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>159.19999999999999</v>
+        <v>158.80000000000001</v>
       </c>
       <c r="C57" s="2">
-        <v>-91.15</v>
+        <v>-91.1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2">
         <v>180</v>
@@ -1684,7 +1693,7 @@
         <v>-87.2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2">
         <v>-90</v>
@@ -1692,7 +1701,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2">
         <v>154</v>
@@ -1701,7 +1710,7 @@
         <v>-83.9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2">
         <v>90</v>
@@ -1709,7 +1718,7 @@
     </row>
     <row r="60" spans="1:5" s="2" customFormat="1">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2">
         <v>136</v>
@@ -1718,7 +1727,7 @@
         <v>-107.95</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2">
         <v>90</v>
@@ -1726,7 +1735,7 @@
     </row>
     <row r="61" spans="1:5" s="2" customFormat="1">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2">
         <v>156.30000000000001</v>
@@ -1735,7 +1744,7 @@
         <v>-93.5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2">
         <v>180</v>
@@ -1743,7 +1752,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2">
         <v>159.19999999999999</v>
@@ -1752,7 +1761,7 @@
         <v>-105.1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -1760,16 +1769,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2">
         <v>154</v>
       </c>
       <c r="C63" s="2">
-        <v>-110.9</v>
+        <v>-111.2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E63" s="2">
         <v>-90</v>
@@ -1777,7 +1786,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2">
         <v>156.30000000000001</v>
@@ -1786,7 +1795,7 @@
         <v>-92.6</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
@@ -1794,7 +1803,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2">
         <v>159.19999999999999</v>
@@ -1803,7 +1812,7 @@
         <v>-106.1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2">
         <v>180</v>
@@ -1811,7 +1820,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2">
         <v>154</v>
@@ -1820,7 +1829,7 @@
         <v>-87.3</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2">
         <v>-90</v>
@@ -1828,7 +1837,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2">
         <v>154</v>
@@ -1837,7 +1846,7 @@
         <v>-107.8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2">
         <v>90</v>
@@ -1845,7 +1854,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2">
         <v>129.44999999999999</v>
@@ -1854,7 +1863,7 @@
         <v>-90</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2">
         <v>90</v>
@@ -1862,7 +1871,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2">
         <v>127</v>
@@ -1871,7 +1880,7 @@
         <v>-96.5</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2">
         <v>-90</v>
@@ -1879,16 +1888,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2">
-        <v>126.65</v>
+        <v>126.6</v>
       </c>
       <c r="C70" s="2">
-        <v>-93.45</v>
+        <v>-93.5</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2">
         <v>90</v>
@@ -1896,16 +1905,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2">
-        <v>158</v>
+        <v>157.69999999999999</v>
       </c>
       <c r="C71" s="2">
         <v>-113.8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -1913,16 +1922,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2">
         <v>154.80000000000001</v>
       </c>
       <c r="C72" s="2">
-        <v>-113.5</v>
+        <v>-113.3</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -1930,16 +1939,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2">
         <v>154.4</v>
       </c>
       <c r="C73" s="2">
-        <v>-118.9</v>
+        <v>-118.7</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E73" s="2">
         <v>180</v>
@@ -1947,118 +1956,118 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2">
-        <v>159.19999999999999</v>
+        <v>149</v>
       </c>
       <c r="C74" s="2">
-        <v>-78.95</v>
+        <v>-118.4</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2">
-        <v>-90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C75" s="2">
-        <v>-114.8</v>
+        <v>-117.4</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2">
-        <v>147.75</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="C76" s="2">
-        <v>-79.349999999999994</v>
+        <v>-117.4</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E76" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2">
-        <v>162.19999999999999</v>
+        <v>159.19999999999999</v>
       </c>
       <c r="C77" s="2">
-        <v>-99.53</v>
+        <v>-79.3</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E77" s="2">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2">
-        <v>162.19999999999999</v>
+        <v>159.6</v>
       </c>
       <c r="C78" s="2">
-        <v>-98.03</v>
+        <v>-113.8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E78" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>162.19999999999999</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="C79" s="2">
-        <v>-96.53</v>
+        <v>-79.3</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E79" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>162.19999999999999</v>
+        <v>162.25</v>
       </c>
       <c r="C80" s="2">
-        <v>-95.03</v>
+        <v>-91.3</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -2066,16 +2075,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>162.19999999999999</v>
+        <v>162.25</v>
       </c>
       <c r="C81" s="2">
-        <v>-93.53</v>
+        <v>-93.3</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
@@ -2083,169 +2092,169 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>165.7</v>
+        <v>162.25</v>
       </c>
       <c r="C82" s="2">
-        <v>-108.5</v>
+        <v>-94.3</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E82" s="2">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>139.125</v>
+        <v>162.25</v>
       </c>
       <c r="C83" s="2">
-        <v>-117.17</v>
+        <v>-96.3</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E83" s="2">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>146.02500000000001</v>
+        <v>162.25</v>
       </c>
       <c r="C84" s="2">
-        <v>-117.145</v>
+        <v>-97.3</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E84" s="2">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B85" s="2">
-        <v>165.92</v>
+        <v>165.7</v>
       </c>
       <c r="C85" s="2">
-        <v>-84.05</v>
+        <v>-108.5</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E85" s="2">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="B86" s="2">
-        <v>165.8</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="C86" s="2">
-        <v>-95.05</v>
+        <v>-116</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E86" s="2">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B87" s="2">
-        <v>141.35</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="C87" s="2">
-        <v>-81.7</v>
+        <v>-116</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E87" s="2">
-        <v>180</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2">
-        <v>134</v>
+        <v>163.55000000000001</v>
       </c>
       <c r="C88" s="2">
-        <v>-101.2</v>
+        <v>-96.05</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E88" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B89" s="2">
-        <v>156.1</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="C89" s="2">
-        <v>-102.8</v>
+        <v>-81.7</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E89" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B90" s="2">
-        <v>144.44999999999999</v>
+        <v>134</v>
       </c>
       <c r="C90" s="2">
-        <v>-76.900000000000006</v>
+        <v>-101.2</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E90" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B91" s="2">
-        <v>146.35</v>
+        <v>156</v>
       </c>
       <c r="C91" s="2">
-        <v>-76.900000000000006</v>
+        <v>-102.8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E91" s="2">
         <v>0</v>
@@ -2253,67 +2262,67 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B92" s="2">
-        <v>160</v>
+        <v>143.9</v>
       </c>
       <c r="C92" s="2">
-        <v>-88.1</v>
+        <v>-76.900000000000006</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E92" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B93" s="2">
-        <v>149.5</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="C93" s="2">
-        <v>-109.9</v>
+        <v>-76.900000000000006</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E93" s="2">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B94" s="2">
-        <v>130.6</v>
+        <v>160</v>
       </c>
       <c r="C94" s="2">
-        <v>-81.8</v>
+        <v>-88.1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E94" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B95" s="2">
-        <v>128</v>
+        <v>149.5</v>
       </c>
       <c r="C95" s="2">
-        <v>-96.5</v>
+        <v>-109.9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E95" s="2">
         <v>-90</v>
@@ -2321,143 +2330,173 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2">
-        <v>129</v>
+        <v>130.6</v>
       </c>
       <c r="C96" s="2">
-        <v>-96.5</v>
+        <v>-88.4</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E96" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B97" s="2">
-        <v>143.30000000000001</v>
+        <v>128</v>
       </c>
       <c r="C97" s="2">
-        <v>-79.150000000000006</v>
+        <v>-96.5</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E97" s="2">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2">
-        <v>154.75</v>
+        <v>129</v>
       </c>
       <c r="C98" s="2">
-        <v>-78.75</v>
+        <v>-96.5</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E98" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B99" s="2">
-        <v>129</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="C99" s="2">
-        <v>-93</v>
+        <v>-79.099999999999994</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E99" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B100" s="2">
-        <v>159.19999999999999</v>
+        <v>154.69999999999999</v>
       </c>
       <c r="C100" s="2">
-        <v>-85.6</v>
+        <v>-79.099999999999994</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E100" s="2">
-        <v>-90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2">
-        <v>158.5</v>
+        <v>129</v>
       </c>
       <c r="C101" s="2">
-        <v>-111.9</v>
+        <v>-93</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E101" s="2">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B102" s="2">
-        <v>154.6</v>
+        <v>159.19999999999999</v>
       </c>
       <c r="C102" s="2">
-        <v>-116.2</v>
+        <v>-85.6</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E102" s="2">
         <v>-90</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+      <c r="A103" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103" s="2">
+        <v>158.25</v>
+      </c>
+      <c r="C103" s="2">
+        <v>-111.9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E103" s="2">
+        <v>-90</v>
+      </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
+      <c r="A104" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104" s="2">
+        <v>154.6</v>
+      </c>
+      <c r="C104" s="2">
+        <v>-116</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E104" s="2">
+        <v>-90</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+      <c r="A105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" s="2">
+        <v>148.1</v>
+      </c>
+      <c r="C105" s="2">
+        <v>-115.4</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2"/>
